--- a/成员评分/里程碑.xlsx
+++ b/成员评分/里程碑.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\大三\软件需求分析\SRA2023-G20-项目计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Desktop\项目地址\SRA2023-G20\成员评分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583C4AB-4C38-4F93-B254-3FB53BF5C9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A882B9-37A7-4528-A80E-9565597FDF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,33 +75,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成需求工程计划报告，
-PPT制作并整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成可行性分析报告，
-文档整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责会议记录，
-项目章程计划报告，文档整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最终
 得分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组织小组会议，完成项目需求工程计划报告
-分配任务，文档及PPT整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成风险分析报告，
-制定风险子计划，文档整合，甘特图更新</t>
+    <t>规划整个项目，管理项目成员，项目审核;分配任务
+编写项目计划；担任会议主持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行风险管理，编写风险管理子计划；绘制更新甘特图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理项目计划，文档整合与PPT制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写项目章程，担任会议记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行可行性分析，并编写可行性分析报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,18 +447,19 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,15 +482,15 @@
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>95</v>
@@ -514,12 +511,12 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>98</v>
@@ -540,12 +537,12 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>98</v>
@@ -566,12 +563,12 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>96</v>
@@ -592,12 +589,12 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>97</v>
